--- a/演習_請求書.xlsx
+++ b/演習_請求書.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\東京都創業ステーション\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFE833C-6060-416A-B02B-8EDDBE6DE841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48AF9C-AE0E-4456-BB71-56E97847ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{39A39F85-0233-405B-A3C0-3849DABDD8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="4" r:id="rId1"/>
-    <sheet name="請求書(完成)" sheetId="7" r:id="rId2"/>
+    <sheet name="請求書(完成)" sheetId="9" r:id="rId2"/>
     <sheet name="請求書(完成)(コメントあり)" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -45,6 +45,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ikuma</author>
+    <author>hi</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{B9B81E86-72F8-4A58-9174-A2A1D2CCEDC0}">
@@ -125,7 +126,7 @@
             <charset val="128"/>
           </rPr>
           <t>書式設定
-@    "御中"</t>
+@ "御中"</t>
         </r>
       </text>
     </comment>
@@ -142,6 +143,21 @@
           </rPr>
           <t>セルの結合
 背景色</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{15E0C751-053A-485C-B1D6-95EDCD4B7F4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>書式設定 通貨\</t>
         </r>
       </text>
     </comment>
@@ -219,6 +235,51 @@
           </rPr>
           <t>セルの結合
 背景色</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="1" shapeId="0" xr:uid="{DAFFAB27-E97B-4EBC-B368-2D7D050209FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>文字中央揃え</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="1" shapeId="0" xr:uid="{BE918F9E-DCD8-40D3-ADD4-279EAA8CFD86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>文字中央揃え</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{276052E9-2BCB-420D-9D51-DF8E7024AC7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>文字中央揃え</t>
         </r>
       </text>
     </comment>
@@ -312,6 +373,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{AF3FE0C1-A2F5-4E03-A488-34F3EFE933A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>=F20*G20
+書式設定 #,###</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="1" shapeId="0" xr:uid="{6A87D0A2-957D-44DA-899E-DCE2E01D666F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>二重線をセル下部に引く</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H71" authorId="0" shapeId="0" xr:uid="{A0B856E8-70F3-4AD9-9F06-EAF96B25B7C4}">
       <text>
         <r>
@@ -342,6 +434,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="A74" authorId="1" shapeId="0" xr:uid="{E25E558F-6441-445A-9821-EB56DE8D0724}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>罫線外枠のみ</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -385,22 +492,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>今回お買上高</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>消費税</t>
     <rPh sb="0" eb="3">
       <t>ショウヒゼイ</t>
@@ -787,16 +878,35 @@
       <t>ガク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回お買上額</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="@\ \ \ \ &quot;御中&quot;"/>
-    <numFmt numFmtId="177" formatCode="m/d"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\-#,##0;"/>
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]\-#,##0;"/>
+    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="@\ &quot;御中&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,###"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1097,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,25 +1217,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,41 +1256,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1212,20 +1310,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1566,21 +1664,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9187E1D-E74D-47C3-BD7B-10029627C9EE}">
   <dimension ref="A2:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1588,15 +1686,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1606,36 +1704,36 @@
     </row>
     <row r="8" spans="1:9">
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1646,58 +1744,49 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>4</v>
       </c>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>423991</v>
       </c>
       <c r="C17">
         <v>423991</v>
       </c>
-      <c r="E17">
-        <v>189906</v>
-      </c>
-      <c r="G17">
-        <v>18990</v>
-      </c>
-      <c r="I17">
-        <v>208896</v>
-      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>7</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <v>45474</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -1707,11 +1796,11 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <v>45474</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1721,11 +1810,11 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <v>45474</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1735,11 +1824,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>45474</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>60</v>
@@ -1749,11 +1838,11 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="25">
+      <c r="A24" s="21">
         <v>45474</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -1763,11 +1852,11 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="25">
+      <c r="A25" s="21">
         <v>45475</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>18</v>
@@ -1777,11 +1866,11 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="25">
+      <c r="A26" s="21">
         <v>45475</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>60</v>
@@ -1791,11 +1880,11 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25">
+      <c r="A27" s="21">
         <v>45475</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1805,11 +1894,11 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="25">
+      <c r="A28" s="21">
         <v>45475</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28">
         <v>40</v>
@@ -1819,11 +1908,11 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="25">
+      <c r="A29" s="21">
         <v>45475</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1833,11 +1922,11 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="25">
+      <c r="A30" s="21">
         <v>45475</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>60</v>
@@ -1847,11 +1936,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="25">
+      <c r="A31" s="21">
         <v>45476</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1861,11 +1950,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="25">
+      <c r="A32" s="21">
         <v>45476</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -1875,11 +1964,11 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="25">
+      <c r="A33" s="21">
         <v>45476</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>9</v>
@@ -1889,11 +1978,11 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="25">
+      <c r="A34" s="21">
         <v>45476</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1903,11 +1992,11 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="25">
+      <c r="A35" s="21">
         <v>45476</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>10</v>
@@ -1917,11 +2006,11 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25">
+      <c r="A36" s="21">
         <v>45476</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1931,11 +2020,11 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="25">
+      <c r="A37" s="21">
         <v>45477</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1945,11 +2034,11 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="25">
+      <c r="A38" s="21">
         <v>45477</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -1959,11 +2048,11 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="25">
+      <c r="A39" s="21">
         <v>45477</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>30</v>
@@ -1973,11 +2062,11 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="25">
+      <c r="A40" s="21">
         <v>45477</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -1987,11 +2076,11 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="25">
+      <c r="A41" s="21">
         <v>45477</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2001,11 +2090,11 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="25">
+      <c r="A42" s="21">
         <v>45478</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -2015,11 +2104,11 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="25">
+      <c r="A43" s="21">
         <v>45478</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2029,11 +2118,11 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="25">
+      <c r="A44" s="21">
         <v>45478</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -2043,11 +2132,11 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="25">
+      <c r="A45" s="21">
         <v>45474</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45">
         <v>20</v>
@@ -2057,11 +2146,11 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="25">
+      <c r="A46" s="21">
         <v>45474</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46">
         <v>20</v>
@@ -2071,11 +2160,11 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="25">
+      <c r="A47" s="21">
         <v>45474</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47">
         <v>60</v>
@@ -2085,11 +2174,11 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="25">
+      <c r="A48" s="21">
         <v>45474</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -2099,11 +2188,11 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="25">
+      <c r="A49" s="21">
         <v>45474</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49">
         <v>18</v>
@@ -2113,11 +2202,11 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="25">
+      <c r="A50" s="21">
         <v>45474</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <v>60</v>
@@ -2127,11 +2216,11 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="25">
+      <c r="A51" s="21">
         <v>45474</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -2140,35 +2229,24 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:2">
       <c r="B71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
         <v>62</v>
       </c>
-      <c r="H71">
-        <v>189906</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72">
-        <v>18990</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1F94B6-BD65-463E-B13A-5BB67B0E1481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C108BBF8-F08B-4F4C-97ED-E537BC4A9C0F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2189,15 +2267,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="32.4">
+    <row r="2" spans="1:10" ht="32.5">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2207,7 +2285,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2215,15 +2293,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
+      <c r="A6" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2233,1198 +2311,1300 @@
     </row>
     <row r="8" spans="1:10">
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="39">
+      <c r="A17" s="25">
         <v>423991</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26">
         <v>423991</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
         <f>H71</f>
         <v>277458</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="39">
+      <c r="F17" s="26"/>
+      <c r="G17" s="25">
         <f>H72</f>
         <v>27745</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39">
+      <c r="H17" s="25"/>
+      <c r="I17" s="27">
         <f>SUM(E17:H17)</f>
         <v>305203</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="37"/>
+      <c r="I19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>45474</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="5">
+      <c r="B20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>1300</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="23">
         <f>F20*G20</f>
         <v>6500</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>45474</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="5">
+      <c r="B21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="4">
         <v>20</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>320</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="23">
         <f t="shared" ref="H21:H70" si="0">F21*G21</f>
         <v>6400</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>45474</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="5">
+      <c r="B22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="4">
         <v>20</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>328</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="23">
         <f t="shared" si="0"/>
         <v>6560</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>45474</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="5">
+      <c r="B23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="4">
         <v>60</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>440</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="23">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>45474</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>399</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="0"/>
+        <v>3990</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="5">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="4">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
+        <v>429</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="0"/>
+        <v>7722</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="4">
+        <v>60</v>
+      </c>
+      <c r="G26" s="4">
+        <v>463</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="0"/>
+        <v>27780</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="4">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4">
+        <v>290</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="4">
+        <v>40</v>
+      </c>
+      <c r="G28" s="4">
+        <v>328</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" si="0"/>
+        <v>13120</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1990</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="0"/>
+        <v>3980</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="4">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4">
+        <v>189</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>475</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="0"/>
+        <v>2375</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="4">
         <v>10</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G32" s="4">
+        <v>1345</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="0"/>
+        <v>13450</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="4">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4">
+        <v>140</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2380</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>413</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="0"/>
+        <v>4130</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>921</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3058</v>
+      </c>
+      <c r="H37" s="23">
+        <f t="shared" si="0"/>
+        <v>3058</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="4">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4">
+        <v>430</v>
+      </c>
+      <c r="H38" s="23">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="4">
+        <v>30</v>
+      </c>
+      <c r="G39" s="4">
+        <v>189</v>
+      </c>
+      <c r="H39" s="23">
+        <f t="shared" si="0"/>
+        <v>5670</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="4">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <v>865</v>
+      </c>
+      <c r="H40" s="23">
+        <f t="shared" si="0"/>
+        <v>8650</v>
+      </c>
+      <c r="I40" s="28"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="4">
+        <v>10</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1345</v>
+      </c>
+      <c r="H41" s="23">
+        <f t="shared" si="0"/>
+        <v>13450</v>
+      </c>
+      <c r="I41" s="28"/>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="4">
+        <v>9</v>
+      </c>
+      <c r="G42" s="4">
+        <v>140</v>
+      </c>
+      <c r="H42" s="23">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2380</v>
+      </c>
+      <c r="H43" s="23">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+      <c r="I43" s="28"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="4">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4">
+        <v>413</v>
+      </c>
+      <c r="H44" s="23">
+        <f t="shared" si="0"/>
+        <v>4130</v>
+      </c>
+      <c r="I44" s="28"/>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="4">
+        <v>20</v>
+      </c>
+      <c r="G45" s="4">
+        <v>320</v>
+      </c>
+      <c r="H45" s="23">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="I45" s="28"/>
+      <c r="J45" s="30"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="4">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4">
+        <v>328</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" si="0"/>
+        <v>6560</v>
+      </c>
+      <c r="I46" s="28"/>
+      <c r="J46" s="30"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="4">
+        <v>60</v>
+      </c>
+      <c r="G47" s="4">
+        <v>440</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="I47" s="28"/>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="4">
+        <v>10</v>
+      </c>
+      <c r="G48" s="4">
         <v>399</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H48" s="23">
         <f t="shared" si="0"/>
         <v>3990</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B25" s="32" t="s">
+      <c r="I48" s="28"/>
+      <c r="J48" s="30"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="4">
+        <v>18</v>
+      </c>
+      <c r="G49" s="4">
+        <v>429</v>
+      </c>
+      <c r="H49" s="23">
+        <f t="shared" si="0"/>
+        <v>7722</v>
+      </c>
+      <c r="I49" s="28"/>
+      <c r="J49" s="30"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="5">
-        <v>18</v>
-      </c>
-      <c r="G25" s="5">
-        <v>429</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>7722</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B26" s="32" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="4">
+        <v>60</v>
+      </c>
+      <c r="G50" s="4">
+        <v>463</v>
+      </c>
+      <c r="H50" s="23">
+        <f t="shared" si="0"/>
+        <v>27780</v>
+      </c>
+      <c r="I50" s="28"/>
+      <c r="J50" s="30"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="5">
-        <v>60</v>
-      </c>
-      <c r="G26" s="5">
-        <v>463</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>27780</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="5">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="4">
         <v>30</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G51" s="4">
         <v>290</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H51" s="23">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="5">
-        <v>40</v>
-      </c>
-      <c r="G28" s="5">
-        <v>328</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>13120</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1990</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>3980</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="5">
-        <v>60</v>
-      </c>
-      <c r="G30" s="5">
-        <v>189</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>11340</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="5">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5">
-        <v>475</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="0"/>
-        <v>2375</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="5">
-        <v>10</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1345</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="0"/>
-        <v>13450</v>
-      </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="5">
-        <v>9</v>
-      </c>
-      <c r="G33" s="5">
-        <v>140</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2380</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" si="0"/>
-        <v>2380</v>
-      </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="5">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5">
-        <v>413</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="0"/>
-        <v>4130</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>921</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="0"/>
-        <v>921</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>3058</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="0"/>
-        <v>3058</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="5">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5">
-        <v>430</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="5">
-        <v>30</v>
-      </c>
-      <c r="G39" s="5">
-        <v>189</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="0"/>
-        <v>5670</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="5">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5">
-        <v>865</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="0"/>
-        <v>8650</v>
-      </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="34"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="5">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1345</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="0"/>
-        <v>13450</v>
-      </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="34"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="4">
-        <v>45478</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="5">
-        <v>9</v>
-      </c>
-      <c r="G42" s="5">
-        <v>140</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="4">
-        <v>45478</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>2380</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="0"/>
-        <v>2380</v>
-      </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="4">
-        <v>45478</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="5">
-        <v>10</v>
-      </c>
-      <c r="G44" s="5">
-        <v>413</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="0"/>
-        <v>4130</v>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="5">
-        <v>20</v>
-      </c>
-      <c r="G45" s="5">
-        <v>320</v>
-      </c>
-      <c r="H45" s="6">
-        <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="34"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="5">
-        <v>20</v>
-      </c>
-      <c r="G46" s="5">
-        <v>328</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" si="0"/>
-        <v>6560</v>
-      </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="5">
-        <v>60</v>
-      </c>
-      <c r="G47" s="5">
-        <v>440</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" si="0"/>
-        <v>26400</v>
-      </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="5">
-        <v>10</v>
-      </c>
-      <c r="G48" s="5">
-        <v>399</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="0"/>
-        <v>3990</v>
-      </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="5">
-        <v>18</v>
-      </c>
-      <c r="G49" s="5">
-        <v>429</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" si="0"/>
-        <v>7722</v>
-      </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="34"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="5">
-        <v>60</v>
-      </c>
-      <c r="G50" s="5">
-        <v>463</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" si="0"/>
-        <v>27780</v>
-      </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="5">
-        <v>30</v>
-      </c>
-      <c r="G51" s="5">
-        <v>290</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="0"/>
-        <v>8700</v>
-      </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="34"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="4"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I52" s="32"/>
-      <c r="J52" s="34"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6">
+      <c r="A53" s="3"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="34"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6">
+      <c r="A54" s="3"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="34"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="6">
+      <c r="A55" s="3"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="34"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="4"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="34"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="4"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6">
+      <c r="A57" s="3"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="34"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6">
+      <c r="A58" s="3"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="34"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6">
+      <c r="A59" s="3"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I59" s="32"/>
-      <c r="J59" s="34"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="4"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="34"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="4"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6">
+      <c r="A61" s="3"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="34"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="4"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6">
+      <c r="A62" s="3"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="34"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="4"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6">
+      <c r="A63" s="3"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="34"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="4"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6">
+      <c r="A64" s="3"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="34"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="4"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6">
+      <c r="A65" s="3"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="34"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="4"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6">
+      <c r="A66" s="3"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="34"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6">
+      <c r="A67" s="3"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="9"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="4"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6">
+      <c r="A68" s="3"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="9"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6">
+      <c r="A69" s="3"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="6">
+      <c r="I69" s="28"/>
+      <c r="J69" s="30"/>
+    </row>
+    <row r="70" spans="1:10" ht="18.5" thickBot="1">
+      <c r="A70" s="16"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="28"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.600000000000001" thickTop="1">
-      <c r="A71" s="22"/>
-      <c r="B71" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24">
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:10" ht="18.5" thickTop="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20">
         <f>SUM(H20:H70)</f>
         <v>277458</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="31"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="4"/>
-      <c r="B72" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6">
+      <c r="A72" s="3"/>
+      <c r="B72" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5">
         <f>INT(H71*0.1)</f>
         <v>27745</v>
       </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="34"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J75" s="16"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="118">
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="B20:E20"/>
@@ -3441,110 +3621,14 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="I66:J66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H72" xr:uid="{FA23645A-8993-49C0-B083-4C21F115FD96}"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H72" xr:uid="{60A18750-85A2-4FBC-BB0D-9530948A1BEB}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R発行日 &amp;D</oddHeader>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
@@ -3559,19 +3643,19 @@
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="32.4">
+    <row r="2" spans="1:11" ht="32.5">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3582,7 +3666,7 @@
     <row r="3" spans="1:11"/>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3590,15 +3674,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
+      <c r="A6" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3608,1198 +3692,1300 @@
     </row>
     <row r="8" spans="1:11">
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="H10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
         <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="38"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39">
+      <c r="A17" s="25">
         <v>423991</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26">
         <v>423991</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
         <f>H71</f>
         <v>277458</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="39">
+      <c r="F17" s="26"/>
+      <c r="G17" s="25">
         <f>H72</f>
         <v>27745</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39">
+      <c r="H17" s="25"/>
+      <c r="I17" s="27">
         <f>SUM(E17:H17)</f>
         <v>305203</v>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="37"/>
+      <c r="I19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>45474</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="5">
+      <c r="B20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="4">
         <v>5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>1300</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="23">
         <f>F20*G20</f>
         <v>6500</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>45474</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="5">
+      <c r="B21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="4">
         <v>20</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>320</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="23">
         <f t="shared" ref="H21:H70" si="0">F21*G21</f>
         <v>6400</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="34"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>45474</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="5">
+      <c r="B22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="4">
         <v>20</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>328</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="23">
         <f t="shared" si="0"/>
         <v>6560</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="34"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>45474</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="5">
+      <c r="B23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="4">
         <v>60</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>440</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="23">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>45474</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <v>399</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="0"/>
+        <v>3990</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="5">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="4">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4">
+        <v>429</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="0"/>
+        <v>7722</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="4">
+        <v>60</v>
+      </c>
+      <c r="G26" s="4">
+        <v>463</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="0"/>
+        <v>27780</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="4">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4">
+        <v>290</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="4">
+        <v>40</v>
+      </c>
+      <c r="G28" s="4">
+        <v>328</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" si="0"/>
+        <v>13120</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1990</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="0"/>
+        <v>3980</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="4">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4">
+        <v>189</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>475</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="0"/>
+        <v>2375</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="4">
         <v>10</v>
       </c>
-      <c r="G24" s="5">
-        <v>399</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="0"/>
-        <v>3990</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="5">
-        <v>18</v>
-      </c>
-      <c r="G25" s="5">
-        <v>429</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="0"/>
-        <v>7722</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="5">
-        <v>60</v>
-      </c>
-      <c r="G26" s="5">
-        <v>463</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="0"/>
-        <v>27780</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="5">
+      <c r="G32" s="4">
+        <v>1345</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="0"/>
+        <v>13450</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="4">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4">
+        <v>140</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2380</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="0"/>
+        <v>2380</v>
+      </c>
+      <c r="I34" s="28"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>413</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="0"/>
+        <v>4130</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>921</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+      <c r="I36" s="28"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>3058</v>
+      </c>
+      <c r="H37" s="23">
+        <f t="shared" si="0"/>
+        <v>3058</v>
+      </c>
+      <c r="I37" s="28"/>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="4">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4">
+        <v>430</v>
+      </c>
+      <c r="H38" s="23">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="I38" s="28"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="4">
         <v>30</v>
       </c>
-      <c r="G27" s="5">
-        <v>290</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="0"/>
-        <v>8700</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="5">
-        <v>40</v>
-      </c>
-      <c r="G28" s="5">
-        <v>328</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="0"/>
-        <v>13120</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="34"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="5">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1990</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="0"/>
-        <v>3980</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4">
-        <v>45475</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="5">
-        <v>60</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="G39" s="4">
         <v>189</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" si="0"/>
-        <v>11340</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="34"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="H39" s="23">
+        <f t="shared" si="0"/>
+        <v>5670</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="4">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <v>865</v>
+      </c>
+      <c r="H40" s="23">
+        <f t="shared" si="0"/>
+        <v>8650</v>
+      </c>
+      <c r="I40" s="28"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="5">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5">
-        <v>475</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="0"/>
-        <v>2375</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="5">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="4">
         <v>10</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G41" s="4">
         <v>1345</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H41" s="23">
         <f t="shared" si="0"/>
         <v>13450</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="34"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="5">
+      <c r="I41" s="28"/>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="4">
         <v>9</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G42" s="4">
         <v>140</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H42" s="23">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="5">
+      <c r="I42" s="28"/>
+      <c r="J42" s="30"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G43" s="4">
         <v>2380</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H43" s="23">
         <f t="shared" si="0"/>
         <v>2380</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="5">
+      <c r="I43" s="28"/>
+      <c r="J43" s="30"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="4">
         <v>10</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G44" s="4">
         <v>413</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H44" s="23">
         <f t="shared" si="0"/>
         <v>4130</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="4">
-        <v>45476</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>921</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="0"/>
-        <v>921</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>3058</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="0"/>
-        <v>3058</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="5">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5">
-        <v>430</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="34"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="5">
+      <c r="I44" s="28"/>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
+        <v>45479</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="5">
-        <v>189</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="0"/>
-        <v>5670</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="34"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="5">
-        <v>10</v>
-      </c>
-      <c r="G40" s="5">
-        <v>865</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="0"/>
-        <v>8650</v>
-      </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="34"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="4">
-        <v>45477</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="5">
-        <v>10</v>
-      </c>
-      <c r="G41" s="5">
-        <v>1345</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="0"/>
-        <v>13450</v>
-      </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="34"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="4">
-        <v>45478</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="5">
-        <v>9</v>
-      </c>
-      <c r="G42" s="5">
-        <v>140</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="34"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="4">
-        <v>45478</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="5">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
-        <v>2380</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="0"/>
-        <v>2380</v>
-      </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="34"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="4">
-        <v>45478</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="5">
-        <v>10</v>
-      </c>
-      <c r="G44" s="5">
-        <v>413</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="0"/>
-        <v>4130</v>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="34"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="4">
-        <v>45479</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="5">
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="4">
         <v>20</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>320</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="23">
         <f t="shared" ref="H45:H51" si="1">F45*G45</f>
         <v>6400</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="34"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45479</v>
       </c>
-      <c r="B46" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="5">
+      <c r="B46" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="4">
         <v>20</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>328</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="23">
         <f t="shared" si="1"/>
         <v>6560</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="34"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>45479</v>
       </c>
-      <c r="B47" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="5">
+      <c r="B47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="4">
         <v>60</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>440</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="23">
         <f t="shared" si="1"/>
         <v>26400</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>45479</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="5">
+      <c r="B48" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="4">
         <v>10</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>399</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="23">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>45479</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="5">
+      <c r="B49" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="4">
         <v>18</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>429</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="23">
         <f t="shared" si="1"/>
         <v>7722</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="34"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>45479</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="5">
+      <c r="B50" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="4">
         <v>60</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>463</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="23">
         <f t="shared" si="1"/>
         <v>27780</v>
       </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="34"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>45479</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="5">
+      <c r="B51" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="4">
         <v>30</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>290</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="23">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="34"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="4"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I52" s="32"/>
-      <c r="J52" s="34"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="4"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6">
+      <c r="A53" s="3"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="34"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6">
+      <c r="A54" s="3"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="34"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="4"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="6">
+      <c r="A55" s="3"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="34"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="4"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="34"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="4"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6">
+      <c r="A57" s="3"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="34"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="4"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6">
+      <c r="A58" s="3"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="34"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6">
+      <c r="A59" s="3"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I59" s="32"/>
-      <c r="J59" s="34"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="4"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="34"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="4"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6">
+      <c r="A61" s="3"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I61" s="32"/>
-      <c r="J61" s="34"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="4"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6">
+      <c r="A62" s="3"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I62" s="32"/>
-      <c r="J62" s="34"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="4"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6">
+      <c r="A63" s="3"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I63" s="32"/>
-      <c r="J63" s="34"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="4"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6">
+      <c r="A64" s="3"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I64" s="32"/>
-      <c r="J64" s="34"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="4"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6">
+      <c r="A65" s="3"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="34"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="4"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6">
+      <c r="A66" s="3"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="32"/>
-      <c r="J66" s="34"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="4"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6">
+      <c r="A67" s="3"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="9"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="4"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6">
+      <c r="A68" s="3"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="9"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6">
+      <c r="A69" s="3"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A70" s="20"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="6">
+      <c r="I69" s="28"/>
+      <c r="J69" s="30"/>
+    </row>
+    <row r="70" spans="1:10" ht="18.5" thickBot="1">
+      <c r="A70" s="16"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="28"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.600000000000001" thickTop="1">
-      <c r="A71" s="22"/>
-      <c r="B71" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24">
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:10" ht="18.5" thickTop="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20">
         <f>SUM(H20:H70)</f>
         <v>277458</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="31"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="38"/>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="4"/>
-      <c r="B72" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6">
+      <c r="A72" s="3"/>
+      <c r="B72" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5">
         <f>INT(H71*0.1)</f>
         <v>27745</v>
       </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="34"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J75" s="16"/>
+      <c r="J75" s="12"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="118">
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="B20:E20"/>
@@ -4816,110 +5002,14 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="I66:J66"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation imeMode="disabled" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:H72" xr:uid="{2BA66EAB-EE12-4757-BECE-75A5E3D51359}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R発行日 &amp;D</oddHeader>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
